--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N2">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O2">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P2">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q2">
-        <v>97.10269778603555</v>
+        <v>107.7159545728847</v>
       </c>
       <c r="R2">
-        <v>873.9242800743199</v>
+        <v>969.4435911559619</v>
       </c>
       <c r="S2">
-        <v>0.001543740394443126</v>
+        <v>0.003127040638369827</v>
       </c>
       <c r="T2">
-        <v>0.001543740394443126</v>
+        <v>0.003127040638369826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q3">
-        <v>134.2551705677485</v>
+        <v>144.3111853651147</v>
       </c>
       <c r="R3">
-        <v>1208.296535109736</v>
+        <v>1298.800668286032</v>
       </c>
       <c r="S3">
-        <v>0.0021343910590926</v>
+        <v>0.004189415978323716</v>
       </c>
       <c r="T3">
-        <v>0.0021343910590926</v>
+        <v>0.004189415978323716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N4">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q4">
-        <v>743.4916036543743</v>
+        <v>907.4809763071785</v>
       </c>
       <c r="R4">
-        <v>6691.424432889369</v>
+        <v>8167.328786764608</v>
       </c>
       <c r="S4">
-        <v>0.01182004256997705</v>
+        <v>0.02634456430073188</v>
       </c>
       <c r="T4">
-        <v>0.01182004256997704</v>
+        <v>0.02634456430073187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N5">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q5">
-        <v>27.51540645422055</v>
+        <v>43.43267357793066</v>
       </c>
       <c r="R5">
-        <v>247.638658087985</v>
+        <v>390.894062201376</v>
       </c>
       <c r="S5">
-        <v>0.0004374404149563184</v>
+        <v>0.001260869254232367</v>
       </c>
       <c r="T5">
-        <v>0.0004374404149563183</v>
+        <v>0.001260869254232367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N6">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q6">
-        <v>981.0171359114844</v>
+        <v>282.3912864009473</v>
       </c>
       <c r="R6">
-        <v>8829.154223203359</v>
+        <v>2541.521577608526</v>
       </c>
       <c r="S6">
-        <v>0.01559622765254678</v>
+        <v>0.00819794088998943</v>
       </c>
       <c r="T6">
-        <v>0.01559622765254677</v>
+        <v>0.008197940889989428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N7">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O7">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P7">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q7">
-        <v>2137.510352097359</v>
+        <v>2205.911028247173</v>
       </c>
       <c r="R7">
-        <v>19237.59316887624</v>
+        <v>19853.19925422455</v>
       </c>
       <c r="S7">
-        <v>0.03398217711050645</v>
+        <v>0.06403854895320688</v>
       </c>
       <c r="T7">
-        <v>0.03398217711050645</v>
+        <v>0.06403854895320685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q8">
         <v>2955.343398836328</v>
@@ -948,10 +948,10 @@
         <v>26598.09058952695</v>
       </c>
       <c r="S8">
-        <v>0.04698410124801483</v>
+        <v>0.08579489403536848</v>
       </c>
       <c r="T8">
-        <v>0.04698410124801484</v>
+        <v>0.08579489403536847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N9">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q9">
-        <v>16366.39388753666</v>
+        <v>18584.26916883523</v>
       </c>
       <c r="R9">
-        <v>147297.54498783</v>
+        <v>167258.4225195171</v>
       </c>
       <c r="S9">
-        <v>0.2601932174040057</v>
+        <v>0.5395093526839542</v>
       </c>
       <c r="T9">
-        <v>0.2601932174040057</v>
+        <v>0.5395093526839541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N10">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q10">
-        <v>605.6934305539049</v>
+        <v>889.4561071451039</v>
       </c>
       <c r="R10">
-        <v>5451.240874985145</v>
+        <v>8005.104964305936</v>
       </c>
       <c r="S10">
-        <v>0.009629324794407137</v>
+        <v>0.02582129457161326</v>
       </c>
       <c r="T10">
-        <v>0.009629324794407139</v>
+        <v>0.02582129457161326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N11">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q11">
-        <v>21595.0157040566</v>
+        <v>5783.080653398079</v>
       </c>
       <c r="R11">
-        <v>194355.1413365095</v>
+        <v>52047.72588058271</v>
       </c>
       <c r="S11">
-        <v>0.3433179388531889</v>
+        <v>0.1678853266431377</v>
       </c>
       <c r="T11">
-        <v>0.343317938853189</v>
+        <v>0.1678853266431377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N12">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O12">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P12">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q12">
-        <v>394.1077860614933</v>
+        <v>72.642107272904</v>
       </c>
       <c r="R12">
-        <v>3546.970074553439</v>
+        <v>653.778965456136</v>
       </c>
       <c r="S12">
-        <v>0.006265532503002933</v>
+        <v>0.002108831717640211</v>
       </c>
       <c r="T12">
-        <v>0.006265532503002932</v>
+        <v>0.002108831717640209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.512536</v>
       </c>
       <c r="O13">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P13">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q13">
-        <v>544.8974049758347</v>
+        <v>97.32141027334399</v>
       </c>
       <c r="R13">
-        <v>4904.076644782512</v>
+        <v>875.892692460096</v>
       </c>
       <c r="S13">
-        <v>0.00866278851224051</v>
+        <v>0.002825282532331733</v>
       </c>
       <c r="T13">
-        <v>0.008662788512240508</v>
+        <v>0.002825282532331732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N14">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O14">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P14">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q14">
-        <v>3017.586911098918</v>
+        <v>611.992259553536</v>
       </c>
       <c r="R14">
-        <v>27158.28219989026</v>
+        <v>5507.930335981824</v>
       </c>
       <c r="S14">
-        <v>0.0479736496989086</v>
+        <v>0.01776639935634404</v>
       </c>
       <c r="T14">
-        <v>0.04797364969890859</v>
+        <v>0.01776639935634404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N15">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O15">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P15">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q15">
-        <v>111.6759489437633</v>
+        <v>29.290377137792</v>
       </c>
       <c r="R15">
-        <v>1005.08354049387</v>
+        <v>263.613394240128</v>
       </c>
       <c r="S15">
-        <v>0.00177542619724257</v>
+        <v>0.0008503122864782243</v>
       </c>
       <c r="T15">
-        <v>0.001775426197242569</v>
+        <v>0.0008503122864782241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N16">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O16">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P16">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q16">
-        <v>3981.624613297442</v>
+        <v>190.440665925592</v>
       </c>
       <c r="R16">
-        <v>35834.62151967698</v>
+        <v>1713.965993330328</v>
       </c>
       <c r="S16">
-        <v>0.06329993801614234</v>
+        <v>0.005528574702873659</v>
       </c>
       <c r="T16">
-        <v>0.06329993801614232</v>
+        <v>0.005528574702873656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N17">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O17">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P17">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q17">
-        <v>42.51429530179554</v>
+        <v>85.60411434755702</v>
       </c>
       <c r="R17">
-        <v>382.6286577161599</v>
+        <v>770.4370291280131</v>
       </c>
       <c r="S17">
-        <v>0.0006758930132227886</v>
+        <v>0.002485124375844815</v>
       </c>
       <c r="T17">
-        <v>0.0006758930132227886</v>
+        <v>0.002485124375844814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.512536</v>
       </c>
       <c r="O18">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P18">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q18">
-        <v>58.78069402239643</v>
+        <v>114.687107054952</v>
       </c>
       <c r="R18">
-        <v>529.0262462015679</v>
+        <v>1032.183963494568</v>
       </c>
       <c r="S18">
-        <v>0.0009344965057070194</v>
+        <v>0.00332941620282669</v>
       </c>
       <c r="T18">
-        <v>0.0009344965057070194</v>
+        <v>0.003329416202826689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N19">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O19">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P19">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q19">
-        <v>325.5215592651982</v>
+        <v>721.1940475490881</v>
       </c>
       <c r="R19">
-        <v>2929.694033386784</v>
+        <v>6490.746427941793</v>
       </c>
       <c r="S19">
-        <v>0.005175147465079662</v>
+        <v>0.02093657438007909</v>
       </c>
       <c r="T19">
-        <v>0.005175147465079662</v>
+        <v>0.02093657438007909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N20">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O20">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P20">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q20">
-        <v>12.04701972257555</v>
+        <v>34.516851009936</v>
       </c>
       <c r="R20">
-        <v>108.42317750318</v>
+        <v>310.6516590894241</v>
       </c>
       <c r="S20">
-        <v>0.0001915237310849197</v>
+        <v>0.001002039078097695</v>
       </c>
       <c r="T20">
-        <v>0.0001915237310849197</v>
+        <v>0.001002039078097694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N21">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O21">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P21">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q21">
-        <v>429.5169255149212</v>
+        <v>224.4222415117111</v>
       </c>
       <c r="R21">
-        <v>3865.652329634291</v>
+        <v>2019.800173605399</v>
       </c>
       <c r="S21">
-        <v>0.006828467623787884</v>
+        <v>0.006515074504458108</v>
       </c>
       <c r="T21">
-        <v>0.006828467623787884</v>
+        <v>0.006515074504458106</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N22">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O22">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P22">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q22">
-        <v>408.2772393199023</v>
+        <v>26.18747717222144</v>
       </c>
       <c r="R22">
-        <v>3674.49515387912</v>
+        <v>235.687294549993</v>
       </c>
       <c r="S22">
-        <v>0.006490798719708658</v>
+        <v>0.0007602337616430745</v>
       </c>
       <c r="T22">
-        <v>0.006490798719708658</v>
+        <v>0.0007602337616430742</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.512536</v>
       </c>
       <c r="O23">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P23">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q23">
-        <v>564.4882341436419</v>
+        <v>35.08436505464977</v>
       </c>
       <c r="R23">
-        <v>5080.394107292776</v>
+        <v>315.759285491848</v>
       </c>
       <c r="S23">
-        <v>0.008974243858348593</v>
+        <v>0.001018514255685847</v>
       </c>
       <c r="T23">
-        <v>0.008974243858348593</v>
+        <v>0.001018514255685847</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N24">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O24">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P24">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q24">
-        <v>3126.078948562322</v>
+        <v>220.6231885100124</v>
       </c>
       <c r="R24">
-        <v>28134.7105370609</v>
+        <v>1985.608696590112</v>
       </c>
       <c r="S24">
-        <v>0.04969845801552963</v>
+        <v>0.006404786356609089</v>
       </c>
       <c r="T24">
-        <v>0.04969845801552963</v>
+        <v>0.006404786356609088</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N25">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O25">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P25">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q25">
-        <v>115.6910615464872</v>
+        <v>10.55917995027378</v>
       </c>
       <c r="R25">
-        <v>1041.219553918385</v>
+        <v>95.032619552464</v>
       </c>
       <c r="S25">
-        <v>0.001839258527902634</v>
+        <v>0.0003065375500156211</v>
       </c>
       <c r="T25">
-        <v>0.001839258527902634</v>
+        <v>0.000306537550015621</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N26">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O26">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P26">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q26">
-        <v>4124.776933160125</v>
+        <v>68.65385351299322</v>
       </c>
       <c r="R26">
-        <v>37122.99239844112</v>
+        <v>617.884681616939</v>
       </c>
       <c r="S26">
-        <v>0.06557577611095217</v>
+        <v>0.001993050990144233</v>
       </c>
       <c r="T26">
-        <v>0.06557577611095217</v>
+        <v>0.001993050990144232</v>
       </c>
     </row>
   </sheetData>
